--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -88,13 +88,13 @@
     <t xml:space="preserve">После открытия депозита клиент получает СМС-уведомление.</t>
   </si>
   <si>
-    <t xml:space="preserve">Необходимо использовать существующий функционал СМС в ядре системы.</t>
+    <t xml:space="preserve">Необходимо использовать существующий функционал отправки СМС в системе.</t>
   </si>
   <si>
     <t xml:space="preserve">F7</t>
   </si>
   <si>
-    <t xml:space="preserve">Персонал бэк-офиса может работать с данными ставок, хранящимися в XLS-файлах.</t>
+    <t xml:space="preserve">Персонал бэк-офиса может работать с данными ставок</t>
   </si>
   <si>
     <t xml:space="preserve">Возможна интеграция с АБС для согласования ставок.</t>
@@ -227,6 +227,67 @@
   </si>
   <si>
     <t xml:space="preserve">Включает обязательный личный визит клиента в отделение банка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать Kafka для очередей сообщений</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Выбор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Kafka </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">обусловлен перспективой развития обмена данными между подсистемами</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать платформы Java, Net, PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущий стэк технологий со специлистами в штате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Следует избегать прямого обмена данными между онлайн-банком и АБС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БД системы уже перегружена. Онлайн-подача заявок на большое количество продуктов может поставить под угрозу работоспособность банка. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АБС поддерживает только вертикальное масштабирование</t>
   </si>
 </sst>
 </file>
@@ -236,12 +297,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -264,12 +326,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -277,9 +341,16 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +373,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,7 +460,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +654,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,10 +806,10 @@
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -736,10 +817,10 @@
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -747,10 +828,10 @@
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -767,10 +848,10 @@
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -778,10 +859,10 @@
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -798,10 +879,10 @@
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -809,10 +890,10 @@
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -829,10 +910,10 @@
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -840,23 +921,65 @@
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="27" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="8"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
